--- a/data/trans_orig/IP12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP12-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C35A00-6E37-4298-B900-49E616549EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{897BFF0B-EE06-4A9D-B2A6-B7F3309B7A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE8BEFFA-1CAB-463A-9F54-F5162DEEB6AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1907792A-2E6B-4224-80B0-1D417C2EE0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="290">
   <si>
     <t>Menores según si limitaron su actividad por dolores o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -104,55 +104,55 @@
     <t>6,34%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,10 +161,10 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>7,12%</t>
@@ -173,571 +173,547 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>9,42%</t>
+    <t>9,74%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>5,58%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>Menores según si limitaron su actividad por dolores o síntomas en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>93,83%</t>
   </si>
   <si>
     <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
@@ -746,70 +722,70 @@
     <t>11,0%</t>
   </si>
   <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
+    <t>15,64%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>80,08%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>94,57%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>6,16%</t>
+    <t>6,12%</t>
   </si>
   <si>
     <t>8,94%</t>
@@ -818,16 +794,16 @@
     <t>92,35%</t>
   </si>
   <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>92,59%</t>
@@ -836,103 +812,103 @@
     <t>91,06%</t>
   </si>
   <si>
-    <t>93,84%</t>
+    <t>93,88%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>10,57%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC94F55-E285-4B12-8DA5-F00FCFFCA6CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C8D8AF-AFCF-4FF4-9EC5-1586EBEC281A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2103,7 +2079,7 @@
         <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -2112,13 +2088,13 @@
         <v>91270</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2109,13 @@
         <v>675308</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>951</v>
@@ -2148,13 +2124,13 @@
         <v>637143</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>1966</v>
@@ -2163,13 +2139,13 @@
         <v>1312451</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,7 +2201,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2916A50C-E0EE-45D3-96CB-6AFD193D67C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A12C29-A1A6-4073-9F81-86EB774FDAB3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2262,7 +2238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2518,13 +2494,13 @@
         <v>7048</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -2533,13 +2509,13 @@
         <v>10061</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -2548,13 +2524,13 @@
         <v>17109</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,28 +2545,28 @@
         <v>79144</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="7">
         <v>119</v>
       </c>
       <c r="I8" s="7">
-        <v>82307</v>
+        <v>82308</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>230</v>
@@ -2599,13 +2575,13 @@
         <v>161452</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,7 +2608,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -2673,13 +2649,13 @@
         <v>45295</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -2688,13 +2664,13 @@
         <v>35049</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -2703,13 +2679,13 @@
         <v>80344</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2700,13 @@
         <v>449151</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>605</v>
@@ -2739,13 +2715,13 @@
         <v>417161</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>1249</v>
@@ -2754,13 +2730,13 @@
         <v>866312</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2804,13 @@
         <v>11218</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2843,13 +2819,13 @@
         <v>16181</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -2858,13 +2834,13 @@
         <v>27399</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2855,13 @@
         <v>161010</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H14" s="7">
         <v>213</v>
@@ -2894,13 +2870,13 @@
         <v>150631</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -3126,7 +3102,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FF0B7B-A7B2-4EBE-B12A-6D04CF6B3271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D733485D-EA69-4A86-8497-0B41A8A6A528}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3595,10 +3571,10 @@
         <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3589,13 @@
         <v>452365</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>663</v>
@@ -3628,13 +3604,13 @@
         <v>439253</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>1305</v>
@@ -3643,13 +3619,13 @@
         <v>891618</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3693,13 @@
         <v>9873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3732,13 +3708,13 @@
         <v>16726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -3747,13 +3723,13 @@
         <v>26599</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3744,13 @@
         <v>177622</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -3783,13 +3759,13 @@
         <v>155977</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>490</v>
@@ -3798,13 +3774,13 @@
         <v>333598</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3848,13 @@
         <v>48482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -3887,13 +3863,13 @@
         <v>55726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>155</v>
@@ -3902,13 +3878,13 @@
         <v>104208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3899,13 @@
         <v>696362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>975</v>
@@ -3938,13 +3914,13 @@
         <v>648028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>1970</v>
@@ -3953,13 +3929,13 @@
         <v>1344390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,7 +3991,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +4011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D705C0-D1A7-4D12-902C-17DCC4F392C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76CEE3-1F46-4F39-A681-64850B1F7F71}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4052,7 +4028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4308,13 +4284,13 @@
         <v>6462</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4323,13 +4299,13 @@
         <v>3598</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4338,13 +4314,13 @@
         <v>10060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4335,13 @@
         <v>52295</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -4374,13 +4350,13 @@
         <v>47604</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>137</v>
@@ -4389,13 +4365,13 @@
         <v>99899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4439,13 @@
         <v>37658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4481,10 +4457,10 @@
         <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -4493,13 +4469,13 @@
         <v>69805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4490,13 @@
         <v>454706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>590</v>
@@ -4529,13 +4505,13 @@
         <v>416990</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>1191</v>
@@ -4544,13 +4520,13 @@
         <v>871695</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4594,13 @@
         <v>12714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4633,13 +4609,13 @@
         <v>11850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -4648,13 +4624,13 @@
         <v>24564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4645,13 @@
         <v>161869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
@@ -4684,13 +4660,13 @@
         <v>139520</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>433</v>
@@ -4699,13 +4675,13 @@
         <v>301388</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4749,13 @@
         <v>56834</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -4788,13 +4764,13 @@
         <v>47594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -4803,13 +4779,13 @@
         <v>104429</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4800,13 @@
         <v>668870</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>865</v>
@@ -4839,13 +4815,13 @@
         <v>605285</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>1762</v>
@@ -4854,13 +4830,13 @@
         <v>1274154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,7 +4892,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897BFF0B-EE06-4A9D-B2A6-B7F3309B7A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA8066F1-CC12-4A7B-BA27-E0DE2A827A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1907792A-2E6B-4224-80B0-1D417C2EE0C3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{905F8791-73C1-4823-AA1A-E64653FFB09D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="290">
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+  <si>
+    <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,847 +68,832 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>90,26%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
 </sst>
 </file>
@@ -1320,8 +1305,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C8D8AF-AFCF-4FF4-9EC5-1586EBEC281A}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C2D030-E3AD-46D7-B61A-3475BDD9861B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1438,10 +1423,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5653</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1453,81 +1438,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5504</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11157</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>85214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="I5" s="7">
+        <v>81341</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>166555</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,151 +1525,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>5503</v>
+        <v>29627</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>5653</v>
+        <v>32033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="N7" s="7">
-        <v>11157</v>
+        <v>61660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>122</v>
+        <v>583</v>
       </c>
       <c r="D8" s="7">
-        <v>81341</v>
+        <v>386460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>128</v>
+        <v>671</v>
       </c>
       <c r="I8" s="7">
-        <v>85214</v>
+        <v>444958</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>1254</v>
       </c>
       <c r="N8" s="7">
-        <v>166555</v>
+        <v>831418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,153 +1680,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>32033</v>
+        <v>8597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>29627</v>
+        <v>9856</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>61660</v>
+        <v>18453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>671</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7">
-        <v>444958</v>
+        <v>165469</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>583</v>
+        <v>221</v>
       </c>
       <c r="I11" s="7">
-        <v>386460</v>
+        <v>148282</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1254</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>831418</v>
+        <v>313752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,153 +1835,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>9856</v>
+        <v>43878</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>8597</v>
+        <v>47392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="N13" s="7">
-        <v>18453</v>
+        <v>91270</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>221</v>
+        <v>951</v>
       </c>
       <c r="D14" s="7">
-        <v>148282</v>
+        <v>637143</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>240</v>
+        <v>1014</v>
       </c>
       <c r="I14" s="7">
-        <v>165469</v>
+        <v>674582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>461</v>
+        <v>1965</v>
       </c>
       <c r="N14" s="7">
-        <v>313752</v>
+        <v>1311725</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,216 +1990,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>71</v>
-      </c>
-      <c r="D16" s="7">
-        <v>47392</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>67</v>
-      </c>
-      <c r="I16" s="7">
-        <v>43878</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="7">
-        <v>138</v>
-      </c>
-      <c r="N16" s="7">
-        <v>91270</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="D17" s="7">
-        <v>675308</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7">
-        <v>951</v>
-      </c>
-      <c r="I17" s="7">
-        <v>637143</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1966</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1312451</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2221,8 +2056,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A12C29-A1A6-4073-9F81-86EB774FDAB3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2424454F-BD35-4235-A9A4-FBF419B57B35}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2238,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2339,96 +2174,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10061</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7048</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>17109</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>82308</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="I5" s="7">
+        <v>79144</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>161452</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,151 +2276,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>7048</v>
+        <v>35049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="I7" s="7">
-        <v>10061</v>
+        <v>45295</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="N7" s="7">
-        <v>17109</v>
+        <v>80344</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>111</v>
+        <v>605</v>
       </c>
       <c r="D8" s="7">
-        <v>79144</v>
+        <v>417161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
+        <v>644</v>
+      </c>
+      <c r="I8" s="7">
+        <v>449151</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1249</v>
+      </c>
+      <c r="N8" s="7">
+        <v>866312</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="7">
-        <v>82308</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="7">
-        <v>230</v>
-      </c>
-      <c r="N8" s="7">
-        <v>161452</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,153 +2431,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>655</v>
       </c>
       <c r="D9" s="7">
-        <v>86192</v>
+        <v>452210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>708</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>494446</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>255</v>
+        <v>1363</v>
       </c>
       <c r="N9" s="7">
-        <v>178561</v>
+        <v>946656</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>45295</v>
+        <v>16181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>35049</v>
+        <v>11218</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>80344</v>
+        <v>27399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>644</v>
+        <v>213</v>
       </c>
       <c r="D11" s="7">
-        <v>449151</v>
+        <v>150631</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
-        <v>605</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>417161</v>
+        <v>161010</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
-        <v>1249</v>
+        <v>443</v>
       </c>
       <c r="N11" s="7">
-        <v>866312</v>
+        <v>311642</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,153 +2586,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>708</v>
+        <v>236</v>
       </c>
       <c r="D12" s="7">
-        <v>494446</v>
+        <v>166812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>655</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>452210</v>
+        <v>172228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1363</v>
+        <v>480</v>
       </c>
       <c r="N12" s="7">
-        <v>946656</v>
+        <v>339041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>11218</v>
+        <v>61292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>16181</v>
+        <v>63560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="N13" s="7">
-        <v>27399</v>
+        <v>124852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>230</v>
+        <v>937</v>
       </c>
       <c r="D14" s="7">
-        <v>161010</v>
+        <v>650099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
-        <v>213</v>
+        <v>985</v>
       </c>
       <c r="I14" s="7">
-        <v>150631</v>
+        <v>689306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
-        <v>443</v>
+        <v>1922</v>
       </c>
       <c r="N14" s="7">
-        <v>311642</v>
+        <v>1339405</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,216 +2741,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>1025</v>
       </c>
       <c r="D15" s="7">
-        <v>172228</v>
+        <v>711391</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>236</v>
+        <v>1073</v>
       </c>
       <c r="I15" s="7">
-        <v>166812</v>
+        <v>752866</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>480</v>
+        <v>2098</v>
       </c>
       <c r="N15" s="7">
-        <v>339041</v>
+        <v>1464257</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>88</v>
-      </c>
-      <c r="D16" s="7">
-        <v>63560</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="7">
-        <v>88</v>
-      </c>
-      <c r="I16" s="7">
-        <v>61292</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" s="7">
-        <v>176</v>
-      </c>
-      <c r="N16" s="7">
-        <v>124852</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>986</v>
-      </c>
-      <c r="D17" s="7">
-        <v>689947</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="7">
-        <v>937</v>
-      </c>
-      <c r="I17" s="7">
-        <v>650099</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1923</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1340046</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D18" s="7">
-        <v>753507</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I18" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1464898</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3122,8 +2807,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D733485D-EA69-4A86-8497-0B41A8A6A528}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9D755C-48FD-4AB1-A055-B56246D31206}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3139,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3240,88 +2925,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6580</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2239</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8819</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52798</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="I5" s="7">
+        <v>66375</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="N5" s="7">
+        <v>119174</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,147 +3027,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>2239</v>
+        <v>32420</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>6580</v>
+        <v>36370</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>8819</v>
+        <v>68790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>96</v>
+        <v>663</v>
       </c>
       <c r="D8" s="7">
-        <v>66375</v>
+        <v>439253</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="I8" s="7">
-        <v>52798</v>
+        <v>452365</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
-        <v>175</v>
+        <v>1305</v>
       </c>
       <c r="N8" s="7">
-        <v>119174</v>
+        <v>891618</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,153 +3182,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>713</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>471673</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1408</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>960408</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>36370</v>
+        <v>16726</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>32420</v>
+        <v>9873</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>68790</v>
+        <v>26599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>642</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>452365</v>
+        <v>155977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
-        <v>663</v>
+        <v>257</v>
       </c>
       <c r="I11" s="7">
-        <v>439253</v>
+        <v>177622</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
-        <v>1305</v>
+        <v>490</v>
       </c>
       <c r="N11" s="7">
-        <v>891618</v>
+        <v>333598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,153 +3337,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>713</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>471673</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1408</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>960408</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7">
-        <v>9873</v>
+        <v>55726</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I13" s="7">
-        <v>16726</v>
+        <v>48482</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="N13" s="7">
-        <v>26599</v>
+        <v>104208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>257</v>
+        <v>975</v>
       </c>
       <c r="D14" s="7">
-        <v>177622</v>
+        <v>648028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>995</v>
       </c>
       <c r="I14" s="7">
-        <v>155977</v>
+        <v>696362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
-        <v>490</v>
+        <v>1970</v>
       </c>
       <c r="N14" s="7">
-        <v>333598</v>
+        <v>1344390</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,216 +3492,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1060</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>703754</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2125</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1448598</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>70</v>
-      </c>
-      <c r="D16" s="7">
-        <v>48482</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="7">
-        <v>85</v>
-      </c>
-      <c r="I16" s="7">
-        <v>55726</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M16" s="7">
-        <v>155</v>
-      </c>
-      <c r="N16" s="7">
-        <v>104208</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>995</v>
-      </c>
-      <c r="D17" s="7">
-        <v>696362</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="7">
-        <v>975</v>
-      </c>
-      <c r="I17" s="7">
-        <v>648028</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1970</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1344390</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I18" s="7">
-        <v>703754</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2125</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1448598</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4011,8 +3558,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76CEE3-1F46-4F39-A681-64850B1F7F71}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8766E6F2-6644-47F5-BF2A-BCA09594218C}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4028,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4129,96 +3676,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3560</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10391</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D5" s="7">
+        <v>51118</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>55173</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>106291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,151 +3778,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>6462</v>
+        <v>32015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7">
-        <v>3598</v>
+        <v>38702</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="N7" s="7">
-        <v>10060</v>
+        <v>70717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>74</v>
+        <v>590</v>
       </c>
       <c r="D8" s="7">
-        <v>52295</v>
+        <v>427679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>601</v>
       </c>
       <c r="I8" s="7">
-        <v>47604</v>
+        <v>477917</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>137</v>
+        <v>1191</v>
       </c>
       <c r="N8" s="7">
-        <v>99899</v>
+        <v>905596</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,153 +3933,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1298</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>976313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>37658</v>
+        <v>11697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>32146</v>
+        <v>13570</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>69805</v>
+        <v>25268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>601</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>454706</v>
+        <v>137854</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
-        <v>590</v>
+        <v>222</v>
       </c>
       <c r="I11" s="7">
-        <v>416990</v>
+        <v>169779</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
-        <v>1191</v>
+        <v>433</v>
       </c>
       <c r="N11" s="7">
-        <v>871695</v>
+        <v>307632</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,153 +4088,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>642</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449136</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1298</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>941500</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>12714</v>
+        <v>47272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>11850</v>
+        <v>59103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="N13" s="7">
-        <v>24564</v>
+        <v>106375</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>222</v>
+        <v>864</v>
       </c>
       <c r="D14" s="7">
-        <v>161869</v>
+        <v>616651</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
-        <v>211</v>
+        <v>897</v>
       </c>
       <c r="I14" s="7">
-        <v>139520</v>
+        <v>702869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
-        <v>433</v>
+        <v>1761</v>
       </c>
       <c r="N14" s="7">
-        <v>301388</v>
+        <v>1319520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,216 +4243,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663923</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1918</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1425895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>80</v>
-      </c>
-      <c r="D16" s="7">
-        <v>56834</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H16" s="7">
-        <v>77</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47594</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M16" s="7">
-        <v>157</v>
-      </c>
-      <c r="N16" s="7">
-        <v>104429</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>897</v>
-      </c>
-      <c r="D17" s="7">
-        <v>668870</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" s="7">
-        <v>865</v>
-      </c>
-      <c r="I17" s="7">
-        <v>605285</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1762</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1274154</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>977</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1378583</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
